--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -43,25 +43,25 @@
     <t>Jewel</t>
   </si>
   <si>
+    <t>Khushi</t>
+  </si>
+  <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Khushi</t>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Kellie</t>
   </si>
   <si>
     <t>Shaniek</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
+    <t>Lori</t>
   </si>
   <si>
     <t>Tina</t>
-  </si>
-  <si>
-    <t>Lori</t>
   </si>
   <si>
     <t>Giana</t>
@@ -477,7 +477,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>13.36634985893487</v>
+        <v>13.41179440177212</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>13.17384225672477</v>
+        <v>13.28345529631224</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>8.435522967461472</v>
+        <v>8.23763560135623</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -546,10 +546,10 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>8.34383967621485</v>
+        <v>8.166612813012238</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -569,10 +569,10 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>8.278735030595699</v>
+        <v>8.005597717419404</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>5.435857524273124</v>
+        <v>5.361927025870195</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -615,10 +615,10 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>5.192148305431918</v>
+        <v>5.237683582040133</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -638,10 +638,10 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>5.114808149099144</v>
+        <v>5.010962683506764</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>4.127572857403828</v>
+        <v>4.477479880056773</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -675,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>4.076664184514845</v>
+        <v>4.389849861394186</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>2.239981183095495</v>
+        <v>2.382527936458554</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>1.379916767955251</v>
+        <v>1.029173221199296</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -34,10 +37,49 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
+    <t>6077db0613ce87b4a62a78f9</t>
+  </si>
+  <si>
+    <t>60bfcf5805c5ae12a546f9f3</t>
+  </si>
+  <si>
+    <t>60c0e5899d387663c07eb3a4</t>
+  </si>
+  <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Annes</t>
+    <t>Bri</t>
   </si>
   <si>
     <t>Jewel</t>
@@ -46,24 +88,21 @@
     <t>Khushi</t>
   </si>
   <si>
-    <t>Bri</t>
+    <t>Shaniek</t>
+  </si>
+  <si>
+    <t>Kellie</t>
   </si>
   <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
+    <t>Tina</t>
   </si>
   <si>
     <t>Lori</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -73,10 +112,10 @@
     <t>female</t>
   </si>
   <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -437,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,146 +501,167 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>13.41179440177212</v>
-      </c>
-      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>13.44015278694422</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>13.28345529631224</v>
-      </c>
-      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>13.26073009200145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>8.23763560135623</v>
-      </c>
-      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>8.354532088468041</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>8.166612813012238</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>8.098102820749885</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>8.005597717419404</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>8.097338185867613</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>5.361927025870195</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>5.483549169353528</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -609,91 +669,103 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>5.237683582040133</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>5.36924149709817</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5.010962683506764</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>5.049422940202584</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>4.477479880056773</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>4.105146646021751</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>4.389849861394186</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>4.050914323979571</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -701,22 +773,25 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>2.382527936458554</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>2.435214467044919</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -724,18 +799,21 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>1.029173221199296</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>1.191712437135525</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
     </row>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -37,10 +37,13 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
@@ -49,9 +52,6 @@
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
@@ -73,10 +73,13 @@
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Khushi</t>
   </si>
   <si>
     <t>Bri</t>
@@ -85,9 +88,6 @@
     <t>Jewel</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
     <t>Shaniek</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>female</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.44015278694422</v>
+        <v>13.42119510329043</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.26073009200145</v>
+        <v>13.17773416771519</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.354532088468041</v>
+        <v>8.277947983434146</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.098102820749885</v>
+        <v>8.218874334828817</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -626,10 +626,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.097338185867613</v>
+        <v>8.21192345112825</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.483549169353528</v>
+        <v>5.441970684512863</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -678,10 +678,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.36924149709817</v>
+        <v>5.381459162249058</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.049422940202584</v>
+        <v>5.321845954194636</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -730,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.105146646021751</v>
+        <v>4.498467056693604</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -756,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.050914323979571</v>
+        <v>4.222996349665409</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -782,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.435214467044919</v>
+        <v>2.390791975163696</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -808,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.191712437135525</v>
+        <v>1.089220531548616</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -55,12 +55,12 @@
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
@@ -91,10 +91,10 @@
     <t>Shaniek</t>
   </si>
   <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
     <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
   </si>
   <si>
     <t>Tina</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.42119510329043</v>
+        <v>13.25581603006527</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.17773416771519</v>
+        <v>13.03564410204013</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.277947983434146</v>
+        <v>8.387878449008936</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.218874334828817</v>
+        <v>8.356292063322577</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.21192345112825</v>
+        <v>8.180015286402934</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.441970684512863</v>
+        <v>5.393336665672788</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -678,10 +678,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.381459162249058</v>
+        <v>5.339669197139461</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -704,10 +704,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.321845954194636</v>
+        <v>5.108019693417147</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.498467056693604</v>
+        <v>4.268640122598316</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.222996349665409</v>
+        <v>4.254495598246366</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.390791975163696</v>
+        <v>2.420025270519735</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.089220531548616</v>
+        <v>1.496024677253027</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -46,27 +46,27 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
+    <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
-    <t>6077db0613ce87b4a62a78f9</t>
-  </si>
-  <si>
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
@@ -82,25 +82,25 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Jewel</t>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
   </si>
   <si>
     <t>Shaniek</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
+    <t>Lori</t>
   </si>
   <si>
     <t>Tina</t>
-  </si>
-  <si>
-    <t>Lori</t>
   </si>
   <si>
     <t>Giana</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.25581603006527</v>
+        <v>13.37383182294894</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.03564410204013</v>
+        <v>13.16250246588412</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.387878449008936</v>
+        <v>8.396910801783761</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.356292063322577</v>
+        <v>8.390562821666926</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.180015286402934</v>
+        <v>8.284137808845447</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -652,10 +652,10 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.393336665672788</v>
+        <v>5.499920003737663</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.339669197139461</v>
+        <v>5.496086788842061</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -704,10 +704,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.108019693417147</v>
+        <v>5.062422754775289</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.268640122598316</v>
+        <v>4.244814854093466</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.254495598246366</v>
+        <v>4.079969157910064</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.420025270519735</v>
+        <v>2.218831050136576</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.496024677253027</v>
+        <v>1.453411958882284</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -43,15 +43,15 @@
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
     <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
-    <t>5e96194b0a9fe909389e9f7b</t>
-  </si>
-  <si>
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
@@ -79,15 +79,15 @@
     <t>Annes</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Khushi</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
-    <t>Bri</t>
-  </si>
-  <si>
     <t>Kellie</t>
   </si>
   <si>
@@ -97,10 +97,10 @@
     <t>Shaniek</t>
   </si>
   <si>
+    <t>Tina</t>
+  </si>
+  <si>
     <t>Lori</t>
-  </si>
-  <si>
-    <t>Tina</t>
   </si>
   <si>
     <t>Giana</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.37383182294894</v>
+        <v>13.4562512144795</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.16250246588412</v>
+        <v>13.03225951465968</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.396910801783761</v>
+        <v>8.49956431831203</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.390562821666926</v>
+        <v>8.20087022370102</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -626,10 +626,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.284137808845447</v>
+        <v>8.064168822103696</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.499920003737663</v>
+        <v>5.333931338090698</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.496086788842061</v>
+        <v>5.316202313826643</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.062422754775289</v>
+        <v>5.294121455295787</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.244814854093466</v>
+        <v>4.302967855272668</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.079969157910064</v>
+        <v>4.23075704731449</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.218831050136576</v>
+        <v>2.016984074606204</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.453411958882284</v>
+        <v>1.054877676087834</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -37,30 +37,30 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>5c5882fc5bfe7600011197cb</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
-    <t>608b14a312c099ac00b721b6</t>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
@@ -73,30 +73,30 @@
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Annes</t>
+    <t>Jewel</t>
+  </si>
+  <si>
+    <t>Khushi</t>
   </si>
   <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
-    <t>Khushi</t>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
   </si>
   <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>female</t>
   </si>
   <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.4562512144795</v>
+        <v>13.33466479435452</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.03225951465968</v>
+        <v>13.28508527389088</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.49956431831203</v>
+        <v>8.341848052842526</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -600,10 +600,10 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.20087022370102</v>
+        <v>8.243276706149189</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -626,10 +626,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.064168822103696</v>
+        <v>8.088597951143703</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -652,10 +652,10 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.333931338090698</v>
+        <v>5.495565970904949</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.316202313826643</v>
+        <v>5.313043414706029</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -704,10 +704,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.294121455295787</v>
+        <v>5.270427976346927</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -730,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.302967855272668</v>
+        <v>4.427089860512693</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -756,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.23075704731449</v>
+        <v>4.1449432509138</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -782,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.016984074606204</v>
+        <v>2.219960194385904</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -808,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.054877676087834</v>
+        <v>1.256578053837044</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_mat_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_female.xlsx
@@ -37,30 +37,30 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
     <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
@@ -73,30 +73,30 @@
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Khushi</t>
+  </si>
+  <si>
+    <t>Bri</t>
   </si>
   <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
-    <t>Bri</t>
+    <t>Shaniek</t>
+  </si>
+  <si>
+    <t>Kellie</t>
   </si>
   <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>female</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.33466479435452</v>
+        <v>13.31506030987625</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.28508527389088</v>
+        <v>13.130384389367</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.341848052842526</v>
+        <v>8.498278792419898</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -600,10 +600,10 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.243276706149189</v>
+        <v>8.355697465183056</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>8.088597951143703</v>
+        <v>8.134258835778642</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.495565970904949</v>
+        <v>5.448119842755066</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -678,10 +678,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.313043414706029</v>
+        <v>5.219888263802211</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -704,10 +704,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.270427976346927</v>
+        <v>5.11084791097563</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -730,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.427089860512693</v>
+        <v>4.296441911182961</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -756,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.1449432509138</v>
+        <v>4.1523214256927</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -782,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.219960194385904</v>
+        <v>2.11461190719625</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -808,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>1.256578053837044</v>
+        <v>1.433139721461116</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>12</v>
